--- a/my-app/static/downloads-excel/Reporte_empleados_2023_08_14.xlsx
+++ b/my-app/static/downloads-excel/Reporte_empleados_2023_08_14.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00 [$COP]"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -50,7 +48,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
